--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meu Drive\Projetos\Python\Auto criador de ppt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meu Drive\Projetos\Python\Auto-criador-de-PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE3794-A42C-4184-9400-4AEA091FCB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB34265-383D-451D-BDB8-4A0C62E49990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Local</t>
   </si>
@@ -33,55 +33,76 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>Mercado São Roque</t>
-  </si>
-  <si>
     <t>Mercado</t>
   </si>
   <si>
-    <t>Bar do chico</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Troca de óleo</t>
-  </si>
-  <si>
-    <t>Carro</t>
-  </si>
-  <si>
-    <t>Posto do Castro</t>
-  </si>
-  <si>
-    <t>Mercearia Estrela Matutina</t>
-  </si>
-  <si>
     <t>Gasto</t>
   </si>
   <si>
     <t>Dia</t>
   </si>
   <si>
-    <t>Pezzota</t>
-  </si>
-  <si>
     <t>Restaurante</t>
   </si>
   <si>
-    <t>Thanks</t>
-  </si>
-  <si>
-    <t>Poncho Verde</t>
-  </si>
-  <si>
-    <t>Posto Ipiranga</t>
-  </si>
-  <si>
-    <t>Aromatizacar</t>
-  </si>
-  <si>
-    <t>CCT</t>
+    <t>Supermercado</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Farmácia</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Entretenimento</t>
+  </si>
+  <si>
+    <t>Posto de gasolina</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Loja de roupas</t>
+  </si>
+  <si>
+    <t>Vestuário</t>
+  </si>
+  <si>
+    <t>Salão de beleza</t>
+  </si>
+  <si>
+    <t>Beleza</t>
+  </si>
+  <si>
+    <t>Livraria</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>Posto de Gasolina</t>
+  </si>
+  <si>
+    <t>Loja de Roupas</t>
+  </si>
+  <si>
+    <t>Padaria</t>
+  </si>
+  <si>
+    <t>Salão de Beleza</t>
+  </si>
+  <si>
+    <t>Transporte Público</t>
   </si>
 </sst>
 </file>
@@ -91,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,19 +127,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -128,16 +205,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -148,6 +406,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D34EB0B6-2FE9-4886-AD9E-A460E47B223A}" name="Tabela1" displayName="Tabela1" ref="A1:D24" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="5">
+  <autoFilter ref="A1:D24" xr:uid="{D34EB0B6-2FE9-4886-AD9E-A460E47B223A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5DF2D10B-601C-49F1-8939-211ECBB9F4D6}" name="Local" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{1C4D4C78-8A0F-49E0-A192-6F9920945E56}" name="Gasto" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{41E842B3-7AC3-409D-88B7-26D152242B8E}" name="categoria" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EBC25E5C-2739-4502-A5DD-B0AE26637E0B}" name="Dia" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,231 +684,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B5" s="5">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>800</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="D5" s="6">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5">
+        <v>200</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <v>120</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>250</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <v>250</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
         <v>44986</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>80</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5">
+        <v>150</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>200</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>150</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>250</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B24" s="8">
+        <v>300</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>44988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44990</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44990</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>44993</v>
+      <c r="D24" s="9">
+        <v>45012</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>